--- a/biology/Zoologie/Goeldia_luteipes/Goeldia_luteipes.xlsx
+++ b/biology/Zoologie/Goeldia_luteipes/Goeldia_luteipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goeldia luteipes est une espèce d'araignées aranéomorphes de la famille des Titanoecidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goeldia luteipes est une espèce d'araignées aranéomorphes de la famille des Titanoecidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Brésil, en Uruguay, en Argentine, en Bolivie et au Venezuela[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Brésil, en Uruguay, en Argentine, en Bolivie et au Venezuela.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 6,4 mm et la femelle paratype 7,4 mm[2].
-Le mâle décrit par Almeida-Silva et Brescovit en 2024 mesure 5,64 mm et la femelle 5,25 mm, les mâles mesurent de 5,20 à 6,63 mm et les femelles de 4,10 à 5,95 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 6,4 mm et la femelle paratype 7,4 mm.
+Le mâle décrit par Almeida-Silva et Brescovit en 2024 mesure 5,64 mm et la femelle 5,25 mm, les mâles mesurent de 5,20 à 6,63 mm et les femelles de 4,10 à 5,95 mm.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Titanoeca luteipes par Keyserling en 1891. Elle est placée  dans le genre Auximus par Petrunkevitch en 1911[4] puis dans le genre Goeldia par Lehtinen en 1967[5].
-Amaurobius cothurnatus[6] a été placée en synonymie par Lehtinen en 1967[5].
-Calleva paupercula[7] et Amaurobius thoracicus[8] ont été placées en synonymie par Almeida-Silva et Brescovit en 2024[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Titanoeca luteipes par Keyserling en 1891. Elle est placée  dans le genre Auximus par Petrunkevitch en 1911 puis dans le genre Goeldia par Lehtinen en 1967.
+Amaurobius cothurnatus a été placée en synonymie par Lehtinen en 1967.
+Calleva paupercula et Amaurobius thoracicus ont été placées en synonymie par Almeida-Silva et Brescovit en 2024.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Keyserling, 1891 : Die Spinnen Amerikas. Brasilianische Spinnen. Nürnberg, vol. 3, p. 1-278 (texte intégral).</t>
         </is>
